--- a/sse/综合数据分析（天）/节日休市后开盘日.xlsx
+++ b/sse/综合数据分析（天）/节日休市后开盘日.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="2015" sheetId="1" r:id="rId1"/>
+    <sheet name="2014" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,17 +16,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
+  <si>
+    <t>开市日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日时长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元旦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>春节</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>元旦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开市日期</t>
+    <t>清明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劳动节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>端午节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国庆节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中秋节</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -374,31 +402,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>42009</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>42060</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>42101</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>42128</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>42178</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>42285</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -410,12 +499,106 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>41641</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>41677</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>41737</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>41764</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>41793</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>41891</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>41920</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
